--- a/Aplikasi Skripsi/Data Scrap/Anies_JanFeb (Done).xlsx
+++ b/Aplikasi Skripsi/Data Scrap/Anies_JanFeb (Done).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\Data Scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D886C0F-2510-4E60-975D-F4E09D01116C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2738FBBD-4708-469D-8B94-9E41D5E98D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E592A487-0B33-4249-A981-1D953FD98B0D}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="2098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="2091">
   <si>
     <t>Sentiment</t>
   </si>
@@ -7934,28 +7934,6 @@
     <t xml:space="preserve">PKS Pandeglang Bersama Anies Baswedan Calon Presiden RI 
 Siap menang Pemilu 2024
  @ Pandeglang, Jawa Barat, Indonesia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalangan dunia internasional seperti menginginkan pak Anies Baswedan yg terpilih jadi Presiden Indonesia berikutnya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persilakan Kader Dukung Anies Baswedan jadi Presiden, Ketua PPP Aceh: Ini Hak Arus Bawah </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terima kasih Partai Demokrat, NasDem dan PKS yg telah mengusung Pak Anies Baswedan sebagai calon presiden 2024. Semoga lancar dan tidak ada halangan. Setelah menjabat, harap murni kan niat dan hati untuk bekerja demi RAKYAT.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bima, 31/01/2023. Pak Anies Baswedan di Do'ain Ayahanda Pak Hamdan Zoelva (Mantan Ketua MK RI) di kediamannya di Kota Bima semoga Pak Anies Rasyid Baswedan Menjadi Presiden RI 2024 - 2029.
-Turut mendampingi beliau adalah Anggota DPR-RI Fraksi PAN Dapil NTB 1 H. Syafruddin, ST. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partai pengusung yg semakin solid dan mesra untuk mendukung Anies Baswedan jadi presiden 2024. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alhamdulillah, kita tidak mengaharapkan dukungan dari Anda, kami rakyat yg akan menjadikan Bpk Anies Baswedan jadi Presiden RI pada 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIMA ‼️ AYAH Pak HAMDAN ZOELVA (Mantan Ketua MK RI) DOAIN ANIES BASWEDAN JADI PRESIDEN  lewat </t>
   </si>
 </sst>
 </file>
@@ -8330,10 +8308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AFDAED-D819-4916-A586-2F973867BCEF}">
-  <dimension ref="A1:B2108"/>
+  <dimension ref="A1:B2101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2101" sqref="A2:A2101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25146,62 +25124,6 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="2102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2102">
-        <v>1</v>
-      </c>
-      <c r="B2102" t="s">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="2103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2103">
-        <v>1</v>
-      </c>
-      <c r="B2103" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="2104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2104">
-        <v>1</v>
-      </c>
-      <c r="B2104" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="2105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2105">
-        <v>1</v>
-      </c>
-      <c r="B2105" t="s">
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="2106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2106">
-        <v>1</v>
-      </c>
-      <c r="B2106" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="2107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2107">
-        <v>1</v>
-      </c>
-      <c r="B2107" t="s">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="2108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2108">
-        <v>1</v>
-      </c>
-      <c r="B2108" t="s">
-        <v>2097</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:B2108" xr:uid="{47AFDAED-D819-4916-A586-2F973867BCEF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Aplikasi Skripsi/Data Scrap/Anies_JanFeb (Done).xlsx
+++ b/Aplikasi Skripsi/Data Scrap/Anies_JanFeb (Done).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\Data Scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2738FBBD-4708-469D-8B94-9E41D5E98D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC42BAA0-E295-4625-B564-3764CBCEBB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E592A487-0B33-4249-A981-1D953FD98B0D}"/>
   </bookViews>
@@ -8310,8 +8310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AFDAED-D819-4916-A586-2F973867BCEF}">
   <dimension ref="A1:B2101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2101" sqref="A2:A2101"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Aplikasi Skripsi/Data Scrap/Anies_JanFeb (Done).xlsx
+++ b/Aplikasi Skripsi/Data Scrap/Anies_JanFeb (Done).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\Data Scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC42BAA0-E295-4625-B564-3764CBCEBB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A75270-3655-450F-8403-CB4534BC72E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E592A487-0B33-4249-A981-1D953FD98B0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E592A487-0B33-4249-A981-1D953FD98B0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7989,10 +7989,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8310,8 +8313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AFDAED-D819-4916-A586-2F973867BCEF}">
   <dimension ref="A1:B2101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A1394" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1418" sqref="B1418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15958,7 +15961,7 @@
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A956">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B956" t="s">
         <v>956</v>
@@ -17972,11 +17975,11 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="1208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1208" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A1208">
         <v>-1</v>
       </c>
-      <c r="B1208" t="s">
+      <c r="B1208" s="2" t="s">
         <v>1207</v>
       </c>
     </row>
@@ -18996,11 +18999,11 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="1336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1336" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A1336">
         <v>1</v>
       </c>
-      <c r="B1336" t="s">
+      <c r="B1336" s="2" t="s">
         <v>1335</v>
       </c>
     </row>
